--- a/Data/EC/NIT-9015749718.xlsx
+++ b/Data/EC/NIT-9015749718.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5474BFDA-3BAB-4D2F-BD5D-879BD6B120F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF8A8C8-8E9A-4FF0-BF26-9B1BEFE432F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B206140-5D23-4C68-B0ED-B57238A70BBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BF467F1-D580-4705-BA48-4C849D42C999}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,82 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1002201543</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER BENAVIDES SANTOYA</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>1143342434</t>
+  </si>
+  <si>
+    <t>JEFFRY ERNEY MORENO CORPUS</t>
+  </si>
+  <si>
+    <t>1051884273</t>
+  </si>
+  <si>
+    <t>JOSE FELIX SANDON MIRANDA</t>
+  </si>
+  <si>
+    <t>1001804427</t>
+  </si>
+  <si>
+    <t>JORGE LUIS GARCIA DE AVILA</t>
+  </si>
+  <si>
     <t>1143407879</t>
   </si>
   <si>
     <t>MANUEL ANTONIO CANOLES PEREZ</t>
   </si>
   <si>
-    <t>2206</t>
+    <t>1050948392</t>
+  </si>
+  <si>
+    <t>PATRICIA DEL ROSARIO CASTELLON PENARANDA</t>
+  </si>
+  <si>
+    <t>1047491722</t>
+  </si>
+  <si>
+    <t>ANA LUZ CORONADO ESQUIVIA</t>
+  </si>
+  <si>
+    <t>1002204523</t>
+  </si>
+  <si>
+    <t>ALBERTO ELIAS AURAAD ORTEGA</t>
+  </si>
+  <si>
+    <t>91106360</t>
+  </si>
+  <si>
+    <t>FRANKLIN EDUARDO VIVAS JEREZ</t>
   </si>
   <si>
     <t>1001944842</t>
@@ -80,79 +149,10 @@
     <t>JOHINNER DANIEL MONDUL FONTALVO</t>
   </si>
   <si>
-    <t>1047491722</t>
-  </si>
-  <si>
-    <t>ANA LUZ CORONADO ESQUIVIA</t>
-  </si>
-  <si>
-    <t>1001804427</t>
-  </si>
-  <si>
-    <t>JORGE LUIS GARCIA DE AVILA</t>
-  </si>
-  <si>
-    <t>1143342434</t>
-  </si>
-  <si>
-    <t>JEFFRY ERNEY MORENO CORPUS</t>
-  </si>
-  <si>
-    <t>1002201543</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER BENAVIDES SANTOYA</t>
-  </si>
-  <si>
     <t>1007588496</t>
   </si>
   <si>
     <t>LUIS FERNANDO YEPES MARTINEZ</t>
-  </si>
-  <si>
-    <t>1051884273</t>
-  </si>
-  <si>
-    <t>JOSE FELIX SANDON MIRANDA</t>
-  </si>
-  <si>
-    <t>1050948392</t>
-  </si>
-  <si>
-    <t>PATRICIA DEL ROSARIO CASTELLON PENARANDA</t>
-  </si>
-  <si>
-    <t>91106360</t>
-  </si>
-  <si>
-    <t>FRANKLIN EDUARDO VIVAS JEREZ</t>
-  </si>
-  <si>
-    <t>1002204523</t>
-  </si>
-  <si>
-    <t>ALBERTO ELIAS AURAAD ORTEGA</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -566,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9E6A15-777D-E681-1500-17CA14D47046}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4543A51-BAD6-95B7-9A8B-942DFC20DE40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F388C71-B455-4D8F-A2A1-2B8C8E15D8DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6C45AF-0F9C-4FAB-B2A1-47C30FAD045F}">
   <dimension ref="B2:J95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1109,13 +1109,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
@@ -1132,19 +1132,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1155,13 +1155,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1178,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1201,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1224,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1247,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1270,16 +1270,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G24" s="18">
         <v>1000000</v>
@@ -1293,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1316,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1362,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1385,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="E29" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1408,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1431,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1454,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1477,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1500,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1523,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1546,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1569,19 +1569,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1592,19 +1592,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1615,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="F39" s="18">
         <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1638,16 +1638,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G40" s="18">
         <v>1000000</v>
@@ -1661,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1684,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1707,13 +1707,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1730,13 +1730,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1753,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1776,13 +1776,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1799,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1822,16 +1822,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G48" s="18">
         <v>1000000</v>
@@ -1845,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1891,13 +1891,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -1914,13 +1914,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1937,13 +1937,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -1960,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -1983,13 +1983,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="E55" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2006,16 +2006,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F56" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G56" s="18">
         <v>1000000</v>
@@ -2029,13 +2029,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2052,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="E58" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2075,13 +2075,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2098,13 +2098,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2121,13 +2121,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2144,13 +2144,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2167,13 +2167,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2190,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F64" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G64" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2213,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F65" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G65" s="18">
         <v>1000000</v>
@@ -2236,13 +2236,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F66" s="18">
         <v>40000</v>
@@ -2259,13 +2259,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2282,13 +2282,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F68" s="18">
         <v>40000</v>
@@ -2305,13 +2305,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
@@ -2328,13 +2328,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
@@ -2351,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2374,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
@@ -2397,16 +2397,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G73" s="18">
         <v>1000000</v>
@@ -2420,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2443,13 +2443,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2466,13 +2466,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2489,13 +2489,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2512,13 +2512,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
@@ -2535,13 +2535,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
@@ -2558,13 +2558,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F80" s="18">
         <v>40000</v>
@@ -2581,13 +2581,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F81" s="18">
         <v>33333</v>
@@ -2604,16 +2604,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F82" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
         <v>1000000</v>
@@ -2627,16 +2627,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F83" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G83" s="18">
         <v>1000000</v>
@@ -2650,16 +2650,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F84" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G84" s="18">
         <v>1000000</v>
@@ -2673,16 +2673,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F85" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G85" s="18">
         <v>1000000</v>
@@ -2696,16 +2696,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F86" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G86" s="18">
         <v>1000000</v>
@@ -2719,16 +2719,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F87" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G87" s="18">
         <v>1000000</v>
@@ -2742,16 +2742,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F88" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G88" s="18">
         <v>1000000</v>
@@ -2765,16 +2765,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F89" s="24">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G89" s="24">
         <v>1000000</v>

--- a/Data/EC/NIT-9015749718.xlsx
+++ b/Data/EC/NIT-9015749718.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDF8A8C8-8E9A-4FF0-BF26-9B1BEFE432F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F77998EA-8C36-45B9-A17D-2D3AD2EF57AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BF467F1-D580-4705-BA48-4C849D42C999}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2A7A59D-D216-457E-8300-CA3715DA29E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,88 +71,88 @@
     <t>FRANCISCO JAVIER BENAVIDES SANTOYA</t>
   </si>
   <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>1143342434</t>
+  </si>
+  <si>
+    <t>JEFFRY ERNEY MORENO CORPUS</t>
+  </si>
+  <si>
+    <t>1051884273</t>
+  </si>
+  <si>
+    <t>JOSE FELIX SANDON MIRANDA</t>
+  </si>
+  <si>
+    <t>1001804427</t>
+  </si>
+  <si>
+    <t>JORGE LUIS GARCIA DE AVILA</t>
+  </si>
+  <si>
+    <t>1143407879</t>
+  </si>
+  <si>
+    <t>MANUEL ANTONIO CANOLES PEREZ</t>
+  </si>
+  <si>
+    <t>1050948392</t>
+  </si>
+  <si>
+    <t>PATRICIA DEL ROSARIO CASTELLON PENARANDA</t>
+  </si>
+  <si>
+    <t>1047491722</t>
+  </si>
+  <si>
+    <t>ANA LUZ CORONADO ESQUIVIA</t>
+  </si>
+  <si>
+    <t>1002204523</t>
+  </si>
+  <si>
+    <t>ALBERTO ELIAS AURAAD ORTEGA</t>
+  </si>
+  <si>
+    <t>91106360</t>
+  </si>
+  <si>
+    <t>FRANKLIN EDUARDO VIVAS JEREZ</t>
+  </si>
+  <si>
+    <t>1001944842</t>
+  </si>
+  <si>
+    <t>JOHINNER DANIEL MONDUL FONTALVO</t>
+  </si>
+  <si>
+    <t>1007588496</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO YEPES MARTINEZ</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>1143342434</t>
-  </si>
-  <si>
-    <t>JEFFRY ERNEY MORENO CORPUS</t>
-  </si>
-  <si>
-    <t>1051884273</t>
-  </si>
-  <si>
-    <t>JOSE FELIX SANDON MIRANDA</t>
-  </si>
-  <si>
-    <t>1001804427</t>
-  </si>
-  <si>
-    <t>JORGE LUIS GARCIA DE AVILA</t>
-  </si>
-  <si>
-    <t>1143407879</t>
-  </si>
-  <si>
-    <t>MANUEL ANTONIO CANOLES PEREZ</t>
-  </si>
-  <si>
-    <t>1050948392</t>
-  </si>
-  <si>
-    <t>PATRICIA DEL ROSARIO CASTELLON PENARANDA</t>
-  </si>
-  <si>
-    <t>1047491722</t>
-  </si>
-  <si>
-    <t>ANA LUZ CORONADO ESQUIVIA</t>
-  </si>
-  <si>
-    <t>1002204523</t>
-  </si>
-  <si>
-    <t>ALBERTO ELIAS AURAAD ORTEGA</t>
-  </si>
-  <si>
-    <t>91106360</t>
-  </si>
-  <si>
-    <t>FRANKLIN EDUARDO VIVAS JEREZ</t>
-  </si>
-  <si>
-    <t>1001944842</t>
-  </si>
-  <si>
-    <t>JOHINNER DANIEL MONDUL FONTALVO</t>
-  </si>
-  <si>
-    <t>1007588496</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO YEPES MARTINEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -251,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -264,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -466,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4543A51-BAD6-95B7-9A8B-942DFC20DE40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300F1175-0FCB-EE75-EE30-D298F86DA713}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6C45AF-0F9C-4FAB-B2A1-47C30FAD045F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5366A0B-C011-4270-BBDF-696ABE2D7D91}">
   <dimension ref="B2:J95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1109,13 +1109,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
@@ -1132,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1155,13 +1155,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1178,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1201,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1224,19 +1224,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1247,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1270,16 +1270,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
         <v>1000000</v>
@@ -1293,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1316,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1339,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1362,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1385,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1408,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1431,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E31" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1454,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1477,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1500,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1523,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1546,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1569,19 +1569,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1592,19 +1592,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1615,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1638,16 +1638,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
         <v>1000000</v>
@@ -1661,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1684,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1707,13 +1707,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1730,13 +1730,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1753,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1776,13 +1776,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1799,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1822,16 +1822,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F48" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
         <v>1000000</v>
@@ -1845,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1891,13 +1891,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="E51" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -1914,13 +1914,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1937,13 +1937,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -1960,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -1983,13 +1983,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2006,16 +2006,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F56" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
         <v>1000000</v>
@@ -2029,13 +2029,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2052,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2075,13 +2075,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2098,13 +2098,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2121,13 +2121,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E61" s="16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2144,13 +2144,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2167,13 +2167,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2190,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F64" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2213,16 +2213,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F65" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
         <v>1000000</v>
@@ -2236,13 +2236,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F66" s="18">
         <v>40000</v>
@@ -2259,13 +2259,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2282,13 +2282,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F68" s="18">
         <v>40000</v>
@@ -2305,13 +2305,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
@@ -2328,13 +2328,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
@@ -2351,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2374,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
@@ -2397,16 +2397,16 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F73" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G73" s="18">
         <v>1000000</v>
@@ -2420,13 +2420,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2443,13 +2443,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2466,13 +2466,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F76" s="18">
         <v>40000</v>
@@ -2489,13 +2489,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2512,13 +2512,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
@@ -2535,13 +2535,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F79" s="18">
         <v>40000</v>
@@ -2558,13 +2558,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F80" s="18">
         <v>40000</v>
@@ -2581,13 +2581,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F81" s="18">
         <v>33333</v>
@@ -2604,16 +2604,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F82" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G82" s="18">
         <v>1000000</v>
@@ -2627,16 +2627,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F83" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G83" s="18">
         <v>1000000</v>
@@ -2650,16 +2650,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G84" s="18">
         <v>1000000</v>
@@ -2673,16 +2673,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G85" s="18">
         <v>1000000</v>
@@ -2696,16 +2696,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G86" s="18">
         <v>1000000</v>
@@ -2719,16 +2719,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F87" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G87" s="18">
         <v>1000000</v>
@@ -2742,16 +2742,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F88" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G88" s="18">
         <v>1000000</v>
@@ -2765,16 +2765,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D89" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="F89" s="24">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G89" s="24">
         <v>1000000</v>
